--- a/Albatross_Raw_Data/Siganus_fuscescens.xlsx
+++ b/Albatross_Raw_Data/Siganus_fuscescens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DBA2D8-53D1-4DBB-8003-4E00ECD6ABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF059A4E-53E9-46F7-8744-E4466F90EC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD280803-59B5-447F-A6D8-69DDE55872CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="15">
   <si>
     <t>Species</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>TL_cm</t>
+  </si>
+  <si>
+    <t>5_23_2023</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63C1E31-5A0F-45F3-A68F-DFE23CDF8F0F}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2143,7 +2146,7 @@
         <v>30.4</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" ref="G50:H56" si="3">E50/10</f>
+        <f t="shared" ref="G50:H61" si="3">E50/10</f>
         <v>2.58</v>
       </c>
       <c r="H50" s="2">
@@ -2359,6 +2362,176 @@
       </c>
       <c r="J56" s="2">
         <v>182979</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2">
+        <v>35.478999999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>120.5</v>
+      </c>
+      <c r="F57" s="2">
+        <v>150</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="3"/>
+        <v>12.05</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="3">
+        <v>182965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2">
+        <v>24.39</v>
+      </c>
+      <c r="E58" s="2">
+        <v>109.9</v>
+      </c>
+      <c r="F58" s="2">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="3"/>
+        <v>10.99</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="3"/>
+        <v>13.580000000000002</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="2">
+        <v>182965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>58</v>
+      </c>
+      <c r="D59" s="2">
+        <v>35.24</v>
+      </c>
+      <c r="E59" s="2">
+        <v>114.9</v>
+      </c>
+      <c r="F59" s="2">
+        <v>145.1</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="3"/>
+        <v>11.49</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="3"/>
+        <v>14.51</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="3">
+        <v>182938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>59</v>
+      </c>
+      <c r="D60" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="E60" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="F60" s="2">
+        <v>147.6</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="3"/>
+        <v>12.25</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="3"/>
+        <v>14.76</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="2">
+        <v>195492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2">
+        <v>143.55000000000001</v>
+      </c>
+      <c r="E61" s="2">
+        <v>186</v>
+      </c>
+      <c r="F61" s="2">
+        <v>233</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="3"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="3"/>
+        <v>23.3</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="3">
+        <v>195476</v>
       </c>
     </row>
   </sheetData>
